--- a/django_vote/candidate_list/候補者リスト.xlsx
+++ b/django_vote/candidate_list/候補者リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mochidatakahiro/dev/django/vote/django_vote/candidate_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12488D7-6288-CB4F-94A3-15F9F5AA9D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3699C14D-37D2-D74D-B6E8-D8602FAD6E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{DCFEF943-AAAC-304B-8C9A-71BC9B0EEF44}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="33" activeTab="46" xr2:uid="{DCFEF943-AAAC-304B-8C9A-71BC9B0EEF44}"/>
   </bookViews>
   <sheets>
     <sheet name="北海道" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2756,7 +2756,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>

--- a/django_vote/candidate_list/候補者リスト.xlsx
+++ b/django_vote/candidate_list/候補者リスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mochidatakahiro/dev/django/vote/django_vote/candidate_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hajimesato/Desktop/vote/django_vote/candidate_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3699C14D-37D2-D74D-B6E8-D8602FAD6E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E81E8D-2E07-9745-8A16-EE82709F6CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="33" activeTab="46" xr2:uid="{DCFEF943-AAAC-304B-8C9A-71BC9B0EEF44}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="25600" windowHeight="28300" firstSheet="33" activeTab="46" xr2:uid="{DCFEF943-AAAC-304B-8C9A-71BC9B0EEF44}"/>
   </bookViews>
   <sheets>
     <sheet name="北海道" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <sheet name="鹿児島" sheetId="46" r:id="rId46"/>
     <sheet name="沖縄" sheetId="47" r:id="rId47"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,9 +69,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="558">
   <si>
     <t>議員名</t>
     <rPh sb="0" eb="3">
@@ -334,9 +333,6 @@
   <si>
     <t>高村正大</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MasazumiGotoda</t>
   </si>
   <si>
     <t>hiratakuchan</t>
@@ -413,12 +409,2027 @@
   <si>
     <t>kokubkonosuke</t>
   </si>
+  <si>
+    <t>斎藤アレックス</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国民</t>
+    <rPh sb="0" eb="2">
+      <t>コクミn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AlexSaito2019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田島一成</t>
+    <rPh sb="0" eb="2">
+      <t>タジマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立民</t>
+    <rPh sb="0" eb="2">
+      <t>リテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tajimaissei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳永久志</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1097naga3119</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日高千穂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NHK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上野賢一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自民</t>
+    <rPh sb="0" eb="1">
+      <t>ジミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武村展英</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤耕平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直山仁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高井崇志</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共産</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウサン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>維新</t>
+    <rPh sb="0" eb="2">
+      <t>イシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れいわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小寺裕雄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自民</t>
+    <rPh sb="0" eb="2">
+      <t>ジミn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+    <rPh sb="0" eb="4">
+      <t>トドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滋賀</t>
+    <rPh sb="0" eb="2">
+      <t>シガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穀田恵二</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堀場幸子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共産</t>
+    <rPh sb="0" eb="2">
+      <t>キョウサn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繁本護</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地坂拓晃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前原誠司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中辰哉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自民</t>
+    <rPh sb="0" eb="1">
+      <t>ジミn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共産</t>
+    <rPh sb="0" eb="1">
+      <t>キョウサn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木村弥生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泉健太</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上博明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立憲</t>
+    <rPh sb="0" eb="2">
+      <t>リッケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>維新</t>
+    <rPh sb="0" eb="1">
+      <t>イシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中英之</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田幸一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北神圭朗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無所属</t>
+    <rPh sb="0" eb="3">
+      <t>ムショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本田太郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本和嘉子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山内健</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上一徳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立憲</t>
+    <rPh sb="0" eb="1">
+      <t>リッケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無所属</t>
+    <rPh sb="0" eb="1">
+      <t>ムショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水鴻一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山井和則</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上賀厚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内祥倫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上英孝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左藤章</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尾辻かな子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守島正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤茂樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩原仁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡部結</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中条栄太郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公明</t>
+    <rPh sb="0" eb="2">
+      <t>コウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中山泰秀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田治</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水忠史</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美延映夫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公明</t>
+    <rPh sb="0" eb="1">
+      <t>コウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上史好</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊佐進一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公明</t>
+    <rPh sb="0" eb="2">
+      <t>コウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡嘉敷奈緒美</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乃木涼介</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川添健真</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥下剛光</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西川弘城</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高麗啓一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松井博史</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漆間譲司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原田憲治</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足立康史</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大椿裕子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磯部和哉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大隈和英</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辻元清美</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池下卓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤ゆかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平野博文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中司宏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北川晋平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇都宮優子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松尾正利</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田文武</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宗清皇一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神野淳一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩谷良平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長尾敬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小松久</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青柳仁士</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加納陽之助</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>為仁史</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦野靖人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森山浩行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北側一雄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西脇京子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡下昌平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森流星</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬場伸幸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神谷昇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川戸康嗣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>望月亮佑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠藤敬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷川とむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長安豊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北村みき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊東信久</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社民</t>
+    <rPh sb="0" eb="2">
+      <t>シャミn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵庫</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井坂信彦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一谷勇一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木原功仁哉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋進吾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舩川治郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤羽一嘉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮野鶴生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関芳弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤田勝紀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田有一朗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤泰樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤井比早之</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今泉真緒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤木正幸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷公一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梶原康弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠藤良太</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大串正樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜井周</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市村浩一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田賢司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安田真理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三木圭恵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中野洋昌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小村潤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辻恵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福原由加利</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西村康稔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡海紀三朗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠樹圭子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掘井健智</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本剛明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太田清幸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住吉寛紀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口壯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒井孝典</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池畑浩太朗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田敏良</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬淵澄夫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前川清成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高市早苗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猪奥美里</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮本次郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西川正克</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤孝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見省次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田野瀬太道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ナラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和歌山</t>
+    <rPh sb="0" eb="3">
+      <t>ワカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岸本周平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田真敏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤井幹雄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所順子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠西愛美</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二階俊博</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畑野良弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本間奈々</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根来英樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諸派</t>
+    <rPh sb="0" eb="2">
+      <t>ショハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後藤田正純</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田知代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤行俊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仁木博文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口俊一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中野真由美</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>久保孝之</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳島</t>
+    <rPh sb="0" eb="2">
+      <t>トクシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川</t>
+    <rPh sb="0" eb="2">
+      <t>カガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小川淳也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町川順子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瀬戸隆一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉木雄一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大野敬太郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尾崎淳一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友近聡朗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上誠一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片岡朗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石井智恵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井原巧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白石洋一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川淳二</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西井直人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤島利久</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜内文城</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武内則男</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中島康治</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尾崎正直</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広田一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広田晋一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高知</t>
+    <rPh sb="0" eb="2">
+      <t>コウティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坪田晋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木村拓史</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本剛正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬼木誠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲富修二</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新開崇司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古賀篤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山内康一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮内秀樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森本慎太郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿部弘樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内信昭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原田義昭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堤かなめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳩山二郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田辺徹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河野一弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊丸英治</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組坂善昭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤丸敏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青木剛志</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻生太郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河野祥子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大島九州男</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三原朝彦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真島省三</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緒方林太郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本幸三</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>城井崇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西田主税</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武田良太</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志岐玲子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上智信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社民</t>
+    <rPh sb="0" eb="1">
+      <t>シャミn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原口一博</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐賀</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古川康</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大串博志</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安江綾子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西岡秀子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤竜祥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松平浩一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷川弥一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田勝彦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石本啓之</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田博司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北村誠吾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>末次精一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中隆治</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩原活</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長崎</t>
+    <rPh sb="0" eb="2">
+      <t>ナガサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濱田大造</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野田毅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋田芳昭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西野太亮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂本哲志</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬場功世</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本間明子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金子恭之</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢上雅義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分</t>
+    <rPh sb="0" eb="2">
+      <t>オオイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下魁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野中美咲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉良州司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衛藤征士郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉川元</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩屋毅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横光克彦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡辺創</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外山斎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脇谷のりこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江藤拓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長友慎治</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古川禎久</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本隆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重黒木優平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川内博史</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金子万寿夫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松崎真琴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三反園訓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小里泰弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野間健</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森山裕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米永淳子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮川直輝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄</t>
+    <rPh sb="0" eb="2">
+      <t>オキナワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤嶺政賢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下地幹郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎政久</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山川泰博</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新垣邦男</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村幸也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島尻安伊子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>屋良朝博</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西銘恒三郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金城徹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_hidaka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ueno_Kenichiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nobu_takemura</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_takai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kokutakeiji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chitak21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maehara2016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kimura841</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>office50824963</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tanaka_Hide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>koichiyoshida4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kitagamikeiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kyoto_honda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wakako718</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kyamauchi2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kazunori_0731</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamanoikazunori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中嶋樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hidetaka_i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10akirasato</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>otsujikanako</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_morishima0715</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hagiharahitoshi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shigeki3468</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yuiwatanabe_osk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ryu_no_kisi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iloveyatchan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y0shida0samu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tadashishimizu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minobeteruo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国重徹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮本岳志</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大石晃子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>籠池諄子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToruKunishige</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ohsakamiyamoto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kagoike2u2u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fumiyoshi610</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isashinichi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>naomi_tokashiki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nogiryosuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jcp_tatsuma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>okutake10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matsuirikken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>harada_kenji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adachiyasushi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3V5rmgL7IgCkk9W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kazu_Okuma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tsujimotokiyomi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iketaku_0410</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SatoYukari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HiranoHirofumi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nakatsuka_h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kitakawashinpei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fumi_fuji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MunekiyoOffice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11_kamino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Iwatani_Ryohei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takashinagao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>komachisa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aoyagi_h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uranoyasuto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MORIYAMAhiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kitagawa_kazuo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shohei_Okashita</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bVaJ42evkqM8YQi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>baba_ishin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noboru_kamitani</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>humandream1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tom_Tanigawa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nagayasu2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0620_appletree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nobuhisaito11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isakanobuhiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y_ichitani</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kiharakuniya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shingogokago225</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AKBhyogo2ku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sekiyoshihiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>satoyasuki7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FujiiHisayuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maoimzm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akagimasayuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endoryota36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ogushi_Masaki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sakurai_shu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ymd_Knj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YasudaM719</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keemiki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hiro_NAKANO_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ganbarutsuji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nishy03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tokaikisaburo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tQvstkwt7SF3ETJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ootakiyo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>244yamaguchi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VGZ20ydBf5ouj4c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k_maekawa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takaichi_sanae</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>miyamotojirou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takamisyoji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shuheikishimoto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ishidamasatoshi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3ku_hatano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nana0504</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MasazumiGotoda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>junyaog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setotakakazu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tamakiyuichiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keitaro_ohno</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>super_tomochika</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoKataoka16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>93kVj2zfCbaXu4x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shiraishiyoichi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fsakura</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NorioKochi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hirota11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shgogo65006854</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onikidon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inkai3t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kogaatsushi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamauchiko1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MiyauchiHideki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shintaromorimo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HirokiAbe1961</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yoshiaki_harada</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cdp_kaname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xu0P5C4rMmMKUdu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MiharaAsahiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syouzoumajima</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamamotogiin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kiitakashi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kharaguchi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>furukawa_yasu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OogushiHiroshi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kokumin_ngsk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Katoryusho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ko_matsudaira</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamabiko719</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hiroyuki0205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kitamura_seigo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daizoha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nishino_daisuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TETUSISAKAMOTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nekotanchan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>masa_yagami</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kai02yamashita</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MisakiNonaka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etoseishiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oshikawaHajime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yokomitsu_oita3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mwatasou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wakitani_noriko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matsumoto_86</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jyuukuroki0309</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kawauchihiroshi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaneko_masuo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ozato_yasuhiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShirojiruOji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akamineseiken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mikioshimoji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miyazaki_kirin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yukiya_mind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shimajiriaiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yaratomohiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NishimeKosaburo</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +2470,12 @@
       <name val="MS"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -482,7 +2499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,6 +2513,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1617,15 +3637,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1633,23 +3653,199 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1664,15 +3860,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1680,23 +3876,352 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1711,15 +4236,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1727,24 +4252,1129 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -1758,15 +5388,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1774,23 +5404,675 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1805,15 +6087,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1821,24 +6103,183 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1899,15 +6340,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1915,24 +6356,183 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +6671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24">
+    <row r="2" spans="1:4" ht="22">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
@@ -2190,15 +6790,15 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2206,24 +6806,132 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2237,15 +6945,15 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2253,24 +6961,132 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>67</v>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2284,10 +7100,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2308,7 +7124,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2317,7 +7133,147 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -2331,15 +7287,15 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2347,24 +7303,115 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
+      <c r="C2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -2425,15 +7472,15 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2441,23 +7488,590 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2472,15 +8086,15 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2488,24 +8102,81 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -2519,15 +8190,15 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2535,23 +8206,233 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2566,15 +8447,15 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2582,24 +8463,183 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -2613,15 +8653,15 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2629,24 +8669,149 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -2660,15 +8825,15 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2676,24 +8841,166 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
+      <c r="C2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -2707,10 +9014,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2731,7 +9038,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2740,7 +9047,133 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -2754,15 +9187,15 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2770,24 +9203,200 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
+      <c r="C2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +9620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24">
+    <row r="2" spans="1:4" ht="22">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
